--- a/SuppXLS/Scen_UC_NUC_MaxCAP.xlsx
+++ b/SuppXLS/Scen_UC_NUC_MaxCAP.xlsx
@@ -1,22 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\VEDA\Veda_models\DemoS_012_Vonline\SuppXLS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\VEDA\Veda_models\Demo_S012_Vonline\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{764D8807-62C6-461A-B8F6-2B9827055191}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25C9577E-8C61-4B20-9409-5A9215AFBE84}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3510" yWindow="3510" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="12735" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TFILL_NUC" sheetId="15" r:id="rId1"/>
     <sheet name="UC_NUCCap" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
